--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H2">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>231.0306253635896</v>
+        <v>928.2780971674347</v>
       </c>
       <c r="R2">
-        <v>231.0306253635896</v>
+        <v>8354.502874506912</v>
       </c>
       <c r="S2">
-        <v>0.006814406169412832</v>
+        <v>0.02404330979903127</v>
       </c>
       <c r="T2">
-        <v>0.006814406169412832</v>
+        <v>0.02404330979903127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H3">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>481.6736006059185</v>
+        <v>1575.897508529849</v>
       </c>
       <c r="R3">
-        <v>481.6736006059185</v>
+        <v>14183.07757676864</v>
       </c>
       <c r="S3">
-        <v>0.01420729200055897</v>
+        <v>0.04081728538540586</v>
       </c>
       <c r="T3">
-        <v>0.01420729200055897</v>
+        <v>0.04081728538540586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H4">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>206.7064613206666</v>
+        <v>677.8707978372133</v>
       </c>
       <c r="R4">
-        <v>206.7064613206666</v>
+        <v>6100.83718053492</v>
       </c>
       <c r="S4">
-        <v>0.00609694832909818</v>
+        <v>0.01755751605671773</v>
       </c>
       <c r="T4">
-        <v>0.00609694832909818</v>
+        <v>0.01755751605671773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H5">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>7447.019200597992</v>
+        <v>9279.930485825782</v>
       </c>
       <c r="R5">
-        <v>7447.019200597992</v>
+        <v>83519.37437243205</v>
       </c>
       <c r="S5">
-        <v>0.2196549202272492</v>
+        <v>0.2403592676214352</v>
       </c>
       <c r="T5">
-        <v>0.2196549202272492</v>
+        <v>0.2403592676214352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H6">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>15526.22102151293</v>
+        <v>15754.13593896879</v>
       </c>
       <c r="R6">
-        <v>15526.22102151293</v>
+        <v>141787.2234507191</v>
       </c>
       <c r="S6">
-        <v>0.4579564988414705</v>
+        <v>0.4080475152354668</v>
       </c>
       <c r="T6">
-        <v>0.4579564988414705</v>
+        <v>0.4080475152354669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H7">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>6662.956410735972</v>
+        <v>6776.62642423196</v>
       </c>
       <c r="R7">
-        <v>6662.956410735972</v>
+        <v>60989.63781808765</v>
       </c>
       <c r="S7">
-        <v>0.1965284524525365</v>
+        <v>0.1755212462809216</v>
       </c>
       <c r="T7">
-        <v>0.1965284524525365</v>
+        <v>0.1755212462809216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H8">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>841.2037205423948</v>
+        <v>1054.826727914345</v>
       </c>
       <c r="R8">
-        <v>841.2037205423948</v>
+        <v>9493.440551229105</v>
       </c>
       <c r="S8">
-        <v>0.02481187857227059</v>
+        <v>0.0273210429944773</v>
       </c>
       <c r="T8">
-        <v>0.02481187857227059</v>
+        <v>0.02732104299447731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H9">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>1753.817807829937</v>
+        <v>1790.7336363136</v>
       </c>
       <c r="R9">
-        <v>1753.817807829937</v>
+        <v>16116.6027268224</v>
       </c>
       <c r="S9">
-        <v>0.05173005470981997</v>
+        <v>0.04638175102570341</v>
       </c>
       <c r="T9">
-        <v>0.05173005470981997</v>
+        <v>0.04638175102570342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H10">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>752.6372057793042</v>
+        <v>770.2823516069045</v>
       </c>
       <c r="R10">
-        <v>752.6372057793042</v>
+        <v>6932.541164462141</v>
       </c>
       <c r="S10">
-        <v>0.02219954869758328</v>
+        <v>0.01995106560084077</v>
       </c>
       <c r="T10">
-        <v>0.02219954869758328</v>
+        <v>0.01995106560084078</v>
       </c>
     </row>
   </sheetData>
